--- a/01_Paradigms/ER-ED/ER_ED/blocks_view.xlsx
+++ b/01_Paradigms/ER-ED/ER_ED/blocks_view.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>StimuliNeutral.xlsx</t>
   </si>
@@ -27,13 +27,25 @@
     <t>Trigger</t>
   </si>
   <si>
-    <t>nReps</t>
-  </si>
-  <si>
     <t>StimuliNegative.xlsx</t>
   </si>
   <si>
     <t>conds_view_File</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>n_reps</t>
+  </si>
+  <si>
+    <t>instr_1</t>
+  </si>
+  <si>
+    <t>instr_2</t>
+  </si>
+  <si>
+    <t>ANSCHAUEN</t>
   </si>
 </sst>
 </file>
@@ -351,48 +363,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.21875" customWidth="1"/>
+    <col min="2" max="2" width="31.21875" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3">
         <v>3</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/01_Paradigms/ER-ED/ER_ED/blocks_view.xlsx
+++ b/01_Paradigms/ER-ED/ER_ED/blocks_view.xlsx
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>StimuliNeutral.xlsx</t>
   </si>
   <si>
-    <t>Trigger</t>
-  </si>
-  <si>
     <t>StimuliNegative.xlsx</t>
   </si>
   <si>
@@ -40,9 +37,6 @@
   </si>
   <si>
     <t>instr_1</t>
-  </si>
-  <si>
-    <t>instr_2</t>
   </si>
   <si>
     <t>ANSCHAUEN</t>
@@ -363,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -375,27 +369,21 @@
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -403,30 +391,24 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/01_Paradigms/ER-ED/ER_ED/blocks_view.xlsx
+++ b/01_Paradigms/ER-ED/ER_ED/blocks_view.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>StimuliNeutral.xlsx</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>ANSCHAUEN</t>
+  </si>
+  <si>
+    <t>TriggerBlockView</t>
   </si>
 </sst>
 </file>
@@ -357,19 +360,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.21875" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -382,8 +385,11 @@
       <c r="D1" t="s">
         <v>5</v>
       </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -396,8 +402,11 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
+      <c r="E2">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -409,6 +418,9 @@
       </c>
       <c r="D3" t="s">
         <v>6</v>
+      </c>
+      <c r="E3">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
